--- a/res/jason/Book1.xlsx
+++ b/res/jason/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasetran/Jase/UM/Academic/F21/COMP 4710/Git/wpg_bus_otp/res/jason/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BD07CB9-C2A5-A248-80D2-1ADE7C5A6356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBA1BE2-70F9-1C4C-9C76-B070B65847DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19920" yWindow="500" windowWidth="18480" windowHeight="19360" xr2:uid="{CA6EB02B-0E32-1C40-B7D0-7F988A6ED2CF}"/>
+    <workbookView xWindow="15780" yWindow="500" windowWidth="22620" windowHeight="19460" xr2:uid="{CA6EB02B-0E32-1C40-B7D0-7F988A6ED2CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="57">
   <si>
     <t>Traffic count</t>
   </si>
@@ -151,6 +151,60 @@
   </si>
   <si>
     <t xml:space="preserve">Bus stops in the affected area </t>
+  </si>
+  <si>
+    <t>Aggregate Weight</t>
+  </si>
+  <si>
+    <t>Nearby construction sites</t>
+  </si>
+  <si>
+    <t>TC1</t>
+  </si>
+  <si>
+    <t>TC2</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
+    <t>TC5</t>
+  </si>
+  <si>
+    <t>TC6</t>
+  </si>
+  <si>
+    <t>TC7</t>
+  </si>
+  <si>
+    <t>TC8</t>
+  </si>
+  <si>
+    <t>d1</t>
+  </si>
+  <si>
+    <t>d2</t>
+  </si>
+  <si>
+    <t>d3</t>
+  </si>
+  <si>
+    <t>d4</t>
+  </si>
+  <si>
+    <t>d5</t>
+  </si>
+  <si>
+    <t>d6</t>
+  </si>
+  <si>
+    <t>d7</t>
+  </si>
+  <si>
+    <t>d8</t>
   </si>
 </sst>
 </file>
@@ -517,20 +571,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7CC28B-617B-4B4F-8B91-214C99B2EE34}">
-  <dimension ref="A3:M66"/>
+  <dimension ref="A3:U82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.83203125" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1856,7 +1910,7 @@
         <v>15.25</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1004</v>
       </c>
@@ -1897,7 +1951,7 @@
         <v>15.25</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1005</v>
       </c>
@@ -1936,6 +1990,901 @@
       </c>
       <c r="M66">
         <v>15.25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" t="s">
+        <v>39</v>
+      </c>
+      <c r="D69" t="s">
+        <v>21</v>
+      </c>
+      <c r="E69" t="s">
+        <v>40</v>
+      </c>
+      <c r="F69" t="s">
+        <v>41</v>
+      </c>
+      <c r="G69" t="s">
+        <v>42</v>
+      </c>
+      <c r="H69" t="s">
+        <v>43</v>
+      </c>
+      <c r="I69" t="s">
+        <v>44</v>
+      </c>
+      <c r="J69" t="s">
+        <v>45</v>
+      </c>
+      <c r="K69" t="s">
+        <v>46</v>
+      </c>
+      <c r="L69" t="s">
+        <v>47</v>
+      </c>
+      <c r="M69" t="s">
+        <v>48</v>
+      </c>
+      <c r="N69" t="s">
+        <v>49</v>
+      </c>
+      <c r="O69" t="s">
+        <v>50</v>
+      </c>
+      <c r="P69" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>52</v>
+      </c>
+      <c r="R69" t="s">
+        <v>53</v>
+      </c>
+      <c r="S69" t="s">
+        <v>54</v>
+      </c>
+      <c r="T69" t="s">
+        <v>55</v>
+      </c>
+      <c r="U69" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>1000</v>
+      </c>
+      <c r="B70">
+        <v>15</v>
+      </c>
+      <c r="C70">
+        <v>3.6</v>
+      </c>
+      <c r="D70">
+        <v>-76</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70">
+        <v>120</v>
+      </c>
+      <c r="G70">
+        <v>321</v>
+      </c>
+      <c r="H70">
+        <v>433</v>
+      </c>
+      <c r="I70">
+        <v>604.33333333333303</v>
+      </c>
+      <c r="J70">
+        <v>760.83333333333303</v>
+      </c>
+      <c r="K70">
+        <v>917.33333333333303</v>
+      </c>
+      <c r="L70">
+        <v>1073.8333333333301</v>
+      </c>
+      <c r="M70">
+        <v>1230.3333333333301</v>
+      </c>
+      <c r="N70">
+        <v>234</v>
+      </c>
+      <c r="O70">
+        <v>221</v>
+      </c>
+      <c r="P70">
+        <v>555</v>
+      </c>
+      <c r="Q70">
+        <v>789</v>
+      </c>
+      <c r="R70">
+        <v>33</v>
+      </c>
+      <c r="S70">
+        <v>11</v>
+      </c>
+      <c r="T70">
+        <v>112</v>
+      </c>
+      <c r="U70">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>1001</v>
+      </c>
+      <c r="B71">
+        <v>15</v>
+      </c>
+      <c r="C71">
+        <v>1.4</v>
+      </c>
+      <c r="D71">
+        <v>-89</v>
+      </c>
+      <c r="E71">
+        <v>3</v>
+      </c>
+      <c r="F71">
+        <v>120</v>
+      </c>
+      <c r="G71">
+        <v>321</v>
+      </c>
+      <c r="H71">
+        <v>433</v>
+      </c>
+      <c r="I71">
+        <v>604.33333333333303</v>
+      </c>
+      <c r="J71">
+        <v>760.83333333333303</v>
+      </c>
+      <c r="K71">
+        <v>917.33333333333303</v>
+      </c>
+      <c r="L71">
+        <v>1073.8333333333301</v>
+      </c>
+      <c r="M71">
+        <v>1230.3333333333301</v>
+      </c>
+      <c r="N71">
+        <v>234</v>
+      </c>
+      <c r="O71">
+        <v>221</v>
+      </c>
+      <c r="P71">
+        <v>555</v>
+      </c>
+      <c r="Q71">
+        <v>789</v>
+      </c>
+      <c r="R71">
+        <v>33</v>
+      </c>
+      <c r="S71">
+        <v>11</v>
+      </c>
+      <c r="T71">
+        <v>112</v>
+      </c>
+      <c r="U71">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>1002</v>
+      </c>
+      <c r="B72">
+        <v>15</v>
+      </c>
+      <c r="C72">
+        <v>2.5</v>
+      </c>
+      <c r="D72">
+        <v>120</v>
+      </c>
+      <c r="E72">
+        <v>4</v>
+      </c>
+      <c r="F72">
+        <v>120</v>
+      </c>
+      <c r="G72">
+        <v>321</v>
+      </c>
+      <c r="H72">
+        <v>433</v>
+      </c>
+      <c r="I72">
+        <v>604.33333333333303</v>
+      </c>
+      <c r="J72">
+        <v>760.83333333333303</v>
+      </c>
+      <c r="K72">
+        <v>917.33333333333303</v>
+      </c>
+      <c r="L72">
+        <v>1073.8333333333301</v>
+      </c>
+      <c r="M72">
+        <v>1230.3333333333301</v>
+      </c>
+      <c r="N72">
+        <v>234</v>
+      </c>
+      <c r="O72">
+        <v>221</v>
+      </c>
+      <c r="P72">
+        <v>555</v>
+      </c>
+      <c r="Q72">
+        <v>789</v>
+      </c>
+      <c r="R72">
+        <v>33</v>
+      </c>
+      <c r="S72">
+        <v>11</v>
+      </c>
+      <c r="T72">
+        <v>112</v>
+      </c>
+      <c r="U72">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>1003</v>
+      </c>
+      <c r="B73">
+        <v>15</v>
+      </c>
+      <c r="C73">
+        <v>32.1</v>
+      </c>
+      <c r="D73">
+        <v>22</v>
+      </c>
+      <c r="E73">
+        <v>3</v>
+      </c>
+      <c r="F73">
+        <v>120</v>
+      </c>
+      <c r="G73">
+        <v>321</v>
+      </c>
+      <c r="H73">
+        <v>433</v>
+      </c>
+      <c r="I73">
+        <v>604.33333333333303</v>
+      </c>
+      <c r="J73">
+        <v>760.83333333333303</v>
+      </c>
+      <c r="K73">
+        <v>917.33333333333303</v>
+      </c>
+      <c r="L73">
+        <v>1073.8333333333301</v>
+      </c>
+      <c r="M73">
+        <v>1230.3333333333301</v>
+      </c>
+      <c r="N73">
+        <v>234</v>
+      </c>
+      <c r="O73">
+        <v>221</v>
+      </c>
+      <c r="P73">
+        <v>555</v>
+      </c>
+      <c r="Q73">
+        <v>789</v>
+      </c>
+      <c r="R73">
+        <v>33</v>
+      </c>
+      <c r="S73">
+        <v>11</v>
+      </c>
+      <c r="T73">
+        <v>112</v>
+      </c>
+      <c r="U73">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>1004</v>
+      </c>
+      <c r="B74">
+        <v>15</v>
+      </c>
+      <c r="C74">
+        <v>12.3</v>
+      </c>
+      <c r="D74">
+        <v>14</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="F74">
+        <v>120</v>
+      </c>
+      <c r="G74">
+        <v>321</v>
+      </c>
+      <c r="H74">
+        <v>433</v>
+      </c>
+      <c r="I74">
+        <v>604.33333333333303</v>
+      </c>
+      <c r="J74">
+        <v>760.83333333333303</v>
+      </c>
+      <c r="K74">
+        <v>917.33333333333303</v>
+      </c>
+      <c r="L74">
+        <v>1073.8333333333301</v>
+      </c>
+      <c r="M74">
+        <v>1230.3333333333301</v>
+      </c>
+      <c r="N74">
+        <v>234</v>
+      </c>
+      <c r="O74">
+        <v>221</v>
+      </c>
+      <c r="P74">
+        <v>555</v>
+      </c>
+      <c r="Q74">
+        <v>789</v>
+      </c>
+      <c r="R74">
+        <v>33</v>
+      </c>
+      <c r="S74">
+        <v>11</v>
+      </c>
+      <c r="T74">
+        <v>112</v>
+      </c>
+      <c r="U74">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>1005</v>
+      </c>
+      <c r="B75">
+        <v>15</v>
+      </c>
+      <c r="C75">
+        <v>3.4</v>
+      </c>
+      <c r="D75">
+        <v>90</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="F75">
+        <v>120</v>
+      </c>
+      <c r="G75">
+        <v>321</v>
+      </c>
+      <c r="H75">
+        <v>433</v>
+      </c>
+      <c r="I75">
+        <v>604.33333333333303</v>
+      </c>
+      <c r="J75">
+        <v>760.83333333333303</v>
+      </c>
+      <c r="K75">
+        <v>917.33333333333303</v>
+      </c>
+      <c r="L75">
+        <v>1073.8333333333301</v>
+      </c>
+      <c r="M75">
+        <v>1230.3333333333301</v>
+      </c>
+      <c r="N75">
+        <v>234</v>
+      </c>
+      <c r="O75">
+        <v>221</v>
+      </c>
+      <c r="P75">
+        <v>555</v>
+      </c>
+      <c r="Q75">
+        <v>789</v>
+      </c>
+      <c r="R75">
+        <v>33</v>
+      </c>
+      <c r="S75">
+        <v>11</v>
+      </c>
+      <c r="T75">
+        <v>112</v>
+      </c>
+      <c r="U75">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>1000</v>
+      </c>
+      <c r="B76">
+        <v>15.25</v>
+      </c>
+      <c r="C76">
+        <v>15.3466666666666</v>
+      </c>
+      <c r="D76">
+        <v>-76</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+      <c r="F76">
+        <v>120</v>
+      </c>
+      <c r="G76">
+        <v>321</v>
+      </c>
+      <c r="H76">
+        <v>433</v>
+      </c>
+      <c r="I76">
+        <v>604.33333333333303</v>
+      </c>
+      <c r="J76">
+        <v>760.83333333333303</v>
+      </c>
+      <c r="K76">
+        <v>917.33333333333303</v>
+      </c>
+      <c r="L76">
+        <v>1073.8333333333301</v>
+      </c>
+      <c r="M76">
+        <v>1230.3333333333301</v>
+      </c>
+      <c r="N76">
+        <v>234</v>
+      </c>
+      <c r="O76">
+        <v>221</v>
+      </c>
+      <c r="P76">
+        <v>555</v>
+      </c>
+      <c r="Q76">
+        <v>789</v>
+      </c>
+      <c r="R76">
+        <v>33</v>
+      </c>
+      <c r="S76">
+        <v>11</v>
+      </c>
+      <c r="T76">
+        <v>112</v>
+      </c>
+      <c r="U76">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>1001</v>
+      </c>
+      <c r="B77">
+        <v>15.25</v>
+      </c>
+      <c r="C77">
+        <v>17.098095238095201</v>
+      </c>
+      <c r="D77">
+        <v>-89</v>
+      </c>
+      <c r="E77">
+        <v>3</v>
+      </c>
+      <c r="F77">
+        <v>120</v>
+      </c>
+      <c r="G77">
+        <v>321</v>
+      </c>
+      <c r="H77">
+        <v>433</v>
+      </c>
+      <c r="I77">
+        <v>604.33333333333303</v>
+      </c>
+      <c r="J77">
+        <v>760.83333333333303</v>
+      </c>
+      <c r="K77">
+        <v>917.33333333333303</v>
+      </c>
+      <c r="L77">
+        <v>1073.8333333333301</v>
+      </c>
+      <c r="M77">
+        <v>1230.3333333333301</v>
+      </c>
+      <c r="N77">
+        <v>234</v>
+      </c>
+      <c r="O77">
+        <v>221</v>
+      </c>
+      <c r="P77">
+        <v>555</v>
+      </c>
+      <c r="Q77">
+        <v>789</v>
+      </c>
+      <c r="R77">
+        <v>33</v>
+      </c>
+      <c r="S77">
+        <v>11</v>
+      </c>
+      <c r="T77">
+        <v>112</v>
+      </c>
+      <c r="U77">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>1002</v>
+      </c>
+      <c r="B78">
+        <v>15.25</v>
+      </c>
+      <c r="C78">
+        <v>18.849523809523799</v>
+      </c>
+      <c r="D78">
+        <v>120</v>
+      </c>
+      <c r="E78">
+        <v>4</v>
+      </c>
+      <c r="F78">
+        <v>120</v>
+      </c>
+      <c r="G78">
+        <v>321</v>
+      </c>
+      <c r="H78">
+        <v>433</v>
+      </c>
+      <c r="I78">
+        <v>604.33333333333303</v>
+      </c>
+      <c r="J78">
+        <v>760.83333333333303</v>
+      </c>
+      <c r="K78">
+        <v>917.33333333333303</v>
+      </c>
+      <c r="L78">
+        <v>1073.8333333333301</v>
+      </c>
+      <c r="M78">
+        <v>1230.3333333333301</v>
+      </c>
+      <c r="N78">
+        <v>234</v>
+      </c>
+      <c r="O78">
+        <v>221</v>
+      </c>
+      <c r="P78">
+        <v>555</v>
+      </c>
+      <c r="Q78">
+        <v>789</v>
+      </c>
+      <c r="R78">
+        <v>33</v>
+      </c>
+      <c r="S78">
+        <v>11</v>
+      </c>
+      <c r="T78">
+        <v>112</v>
+      </c>
+      <c r="U78">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>1003</v>
+      </c>
+      <c r="B79">
+        <v>15.25</v>
+      </c>
+      <c r="C79">
+        <v>20.6009523809523</v>
+      </c>
+      <c r="D79">
+        <v>22</v>
+      </c>
+      <c r="E79">
+        <v>3</v>
+      </c>
+      <c r="F79">
+        <v>120</v>
+      </c>
+      <c r="G79">
+        <v>321</v>
+      </c>
+      <c r="H79">
+        <v>433</v>
+      </c>
+      <c r="I79">
+        <v>604.33333333333303</v>
+      </c>
+      <c r="J79">
+        <v>760.83333333333303</v>
+      </c>
+      <c r="K79">
+        <v>917.33333333333303</v>
+      </c>
+      <c r="L79">
+        <v>1073.8333333333301</v>
+      </c>
+      <c r="M79">
+        <v>1230.3333333333301</v>
+      </c>
+      <c r="N79">
+        <v>234</v>
+      </c>
+      <c r="O79">
+        <v>221</v>
+      </c>
+      <c r="P79">
+        <v>555</v>
+      </c>
+      <c r="Q79">
+        <v>789</v>
+      </c>
+      <c r="R79">
+        <v>33</v>
+      </c>
+      <c r="S79">
+        <v>11</v>
+      </c>
+      <c r="T79">
+        <v>112</v>
+      </c>
+      <c r="U79">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>1004</v>
+      </c>
+      <c r="B80">
+        <v>15.25</v>
+      </c>
+      <c r="C80">
+        <v>22.352380952380901</v>
+      </c>
+      <c r="D80">
+        <v>14</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+      <c r="F80">
+        <v>120</v>
+      </c>
+      <c r="G80">
+        <v>321</v>
+      </c>
+      <c r="H80">
+        <v>433</v>
+      </c>
+      <c r="I80">
+        <v>604.33333333333303</v>
+      </c>
+      <c r="J80">
+        <v>760.83333333333303</v>
+      </c>
+      <c r="K80">
+        <v>917.33333333333303</v>
+      </c>
+      <c r="L80">
+        <v>1073.8333333333301</v>
+      </c>
+      <c r="M80">
+        <v>1230.3333333333301</v>
+      </c>
+      <c r="N80">
+        <v>234</v>
+      </c>
+      <c r="O80">
+        <v>221</v>
+      </c>
+      <c r="P80">
+        <v>555</v>
+      </c>
+      <c r="Q80">
+        <v>789</v>
+      </c>
+      <c r="R80">
+        <v>33</v>
+      </c>
+      <c r="S80">
+        <v>11</v>
+      </c>
+      <c r="T80">
+        <v>112</v>
+      </c>
+      <c r="U80">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>1005</v>
+      </c>
+      <c r="B81">
+        <v>15.25</v>
+      </c>
+      <c r="C81">
+        <v>24.103809523809499</v>
+      </c>
+      <c r="D81">
+        <v>90</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
+      <c r="F81">
+        <v>120</v>
+      </c>
+      <c r="G81">
+        <v>321</v>
+      </c>
+      <c r="H81">
+        <v>433</v>
+      </c>
+      <c r="I81">
+        <v>604.33333333333303</v>
+      </c>
+      <c r="J81">
+        <v>760.83333333333303</v>
+      </c>
+      <c r="K81">
+        <v>917.33333333333303</v>
+      </c>
+      <c r="L81">
+        <v>1073.8333333333301</v>
+      </c>
+      <c r="M81">
+        <v>1230.3333333333301</v>
+      </c>
+      <c r="N81">
+        <v>234</v>
+      </c>
+      <c r="O81">
+        <v>221</v>
+      </c>
+      <c r="P81">
+        <v>555</v>
+      </c>
+      <c r="Q81">
+        <v>789</v>
+      </c>
+      <c r="R81">
+        <v>33</v>
+      </c>
+      <c r="S81">
+        <v>11</v>
+      </c>
+      <c r="T81">
+        <v>112</v>
+      </c>
+      <c r="U81">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="F82">
+        <v>120</v>
+      </c>
+      <c r="G82">
+        <v>321</v>
+      </c>
+      <c r="H82">
+        <v>433</v>
+      </c>
+      <c r="I82">
+        <v>604.33333333333303</v>
+      </c>
+      <c r="J82">
+        <v>760.83333333333303</v>
+      </c>
+      <c r="K82">
+        <v>917.33333333333303</v>
+      </c>
+      <c r="L82">
+        <v>1073.8333333333301</v>
+      </c>
+      <c r="M82">
+        <v>1230.3333333333301</v>
+      </c>
+      <c r="N82">
+        <v>234</v>
+      </c>
+      <c r="O82">
+        <v>221</v>
+      </c>
+      <c r="P82">
+        <v>555</v>
+      </c>
+      <c r="Q82">
+        <v>789</v>
+      </c>
+      <c r="R82">
+        <v>33</v>
+      </c>
+      <c r="S82">
+        <v>11</v>
+      </c>
+      <c r="T82">
+        <v>112</v>
+      </c>
+      <c r="U82">
+        <v>356</v>
       </c>
     </row>
   </sheetData>
